--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Vtn</t>
+  </si>
+  <si>
+    <t>Itgav</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Vtn</t>
-  </si>
-  <si>
-    <t>Itgav</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H2">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I2">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J2">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>49.36816293202501</v>
+        <v>313.93637494317</v>
       </c>
       <c r="R2">
-        <v>197.4726517281</v>
+        <v>1255.74549977268</v>
       </c>
       <c r="S2">
-        <v>0.004137732930909169</v>
+        <v>0.02003738435940874</v>
       </c>
       <c r="T2">
-        <v>0.002541328595947561</v>
+        <v>0.01373214342068183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H3">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I3">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J3">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>191.866505137755</v>
+        <v>888.899304432055</v>
       </c>
       <c r="R3">
-        <v>1151.19903082653</v>
+        <v>5333.39582659233</v>
       </c>
       <c r="S3">
-        <v>0.01608105932035697</v>
+        <v>0.05673511718079952</v>
       </c>
       <c r="T3">
-        <v>0.01481508953804297</v>
+        <v>0.05832308889284477</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H4">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I4">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J4">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>264.072069401595</v>
+        <v>908.4345686153149</v>
       </c>
       <c r="R4">
-        <v>1584.43241640957</v>
+        <v>5450.60741169189</v>
       </c>
       <c r="S4">
-        <v>0.02213288145238043</v>
+        <v>0.05798198001112121</v>
       </c>
       <c r="T4">
-        <v>0.02039048634294994</v>
+        <v>0.05960485044201534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H5">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I5">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J5">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>84.67203557253001</v>
+        <v>484.7704044705901</v>
       </c>
       <c r="R5">
-        <v>338.68814229012</v>
+        <v>1939.08161788236</v>
       </c>
       <c r="S5">
-        <v>0.00709668436311813</v>
+        <v>0.03094108136466069</v>
       </c>
       <c r="T5">
-        <v>0.004358668674259564</v>
+        <v>0.02120473207826633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H6">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I6">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J6">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>38.62003093242</v>
+        <v>480.1203405405517</v>
       </c>
       <c r="R6">
-        <v>231.72018559452</v>
+        <v>2880.72204324331</v>
       </c>
       <c r="S6">
-        <v>0.003236891232955794</v>
+        <v>0.0306442851801508</v>
       </c>
       <c r="T6">
-        <v>0.002982069308110848</v>
+        <v>0.03150199483900024</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.293535</v>
+        <v>15.258635</v>
       </c>
       <c r="H7">
-        <v>6.587070000000001</v>
+        <v>30.51727</v>
       </c>
       <c r="I7">
-        <v>0.07458806695104117</v>
+        <v>0.2692367446232743</v>
       </c>
       <c r="J7">
-        <v>0.0652661766078026</v>
+        <v>0.2593040335198289</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>261.3271297437851</v>
+        <v>1142.114511048431</v>
       </c>
       <c r="R7">
-        <v>1567.96277846271</v>
+        <v>6852.687066290589</v>
       </c>
       <c r="S7">
-        <v>0.02190281765132068</v>
+        <v>0.07289689652713335</v>
       </c>
       <c r="T7">
-        <v>0.02017853414849171</v>
+        <v>0.07493722384702037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>13.025402</v>
       </c>
       <c r="I8">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J8">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>65.08105203994334</v>
+        <v>89.32969181182801</v>
       </c>
       <c r="R8">
-        <v>390.48631223966</v>
+        <v>535.9781508709681</v>
       </c>
       <c r="S8">
-        <v>0.00545468974761466</v>
+        <v>0.005701580041067704</v>
       </c>
       <c r="T8">
-        <v>0.005025273236251101</v>
+        <v>0.005861162822756949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>13.025402</v>
       </c>
       <c r="I9">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J9">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>252.9337383443954</v>
@@ -1013,10 +1013,10 @@
         <v>2276.403645099558</v>
       </c>
       <c r="S9">
-        <v>0.02119933569184238</v>
+        <v>0.01614381427952152</v>
       </c>
       <c r="T9">
-        <v>0.02929564994739755</v>
+        <v>0.02489350058871708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>13.025402</v>
       </c>
       <c r="I10">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J10">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>348.1208752832113</v>
+        <v>258.4924415347127</v>
       </c>
       <c r="R10">
-        <v>3133.087877548902</v>
+        <v>2326.431973812414</v>
       </c>
       <c r="S10">
-        <v>0.02917733057192337</v>
+        <v>0.01649860550874566</v>
       </c>
       <c r="T10">
-        <v>0.04032054943889055</v>
+        <v>0.02544058292753996</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>13.025402</v>
       </c>
       <c r="I11">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J11">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>111.6214342634387</v>
+        <v>137.940023161356</v>
       </c>
       <c r="R11">
-        <v>669.728605580632</v>
+        <v>827.6401389681361</v>
       </c>
       <c r="S11">
-        <v>0.009355415654884252</v>
+        <v>0.008804195637189784</v>
       </c>
       <c r="T11">
-        <v>0.00861891731331804</v>
+        <v>0.009050618211318194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>13.025402</v>
       </c>
       <c r="I12">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J12">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>50.91200671894133</v>
+        <v>136.6168608554563</v>
       </c>
       <c r="R12">
-        <v>458.208060470472</v>
+        <v>1229.551747699106</v>
       </c>
       <c r="S12">
-        <v>0.004267128332680526</v>
+        <v>0.00871974313722703</v>
       </c>
       <c r="T12">
-        <v>0.005896802604193617</v>
+        <v>0.01344570292755228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>13.025402</v>
       </c>
       <c r="I13">
-        <v>0.09832794210883093</v>
+        <v>0.07661054067395251</v>
       </c>
       <c r="J13">
-        <v>0.1290586235336234</v>
+        <v>0.1106763244817523</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>344.5022767754563</v>
+        <v>324.9853964971149</v>
       </c>
       <c r="R13">
-        <v>3100.520490979106</v>
+        <v>2924.868568474034</v>
       </c>
       <c r="S13">
-        <v>0.02887404210988574</v>
+        <v>0.02074260207020081</v>
       </c>
       <c r="T13">
-        <v>0.03990143099357257</v>
+        <v>0.03198475700386787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H14">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I14">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J14">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>1.516828868566667</v>
+        <v>762.7574467978831</v>
       </c>
       <c r="R14">
-        <v>9.100973211400001</v>
+        <v>3051.029787191532</v>
       </c>
       <c r="S14">
-        <v>0.0001271311790285519</v>
+        <v>0.04868395431162494</v>
       </c>
       <c r="T14">
-        <v>0.0001171228687652872</v>
+        <v>0.03336438683321651</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H15">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I15">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J15">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>5.895067521646667</v>
+        <v>2159.719669413094</v>
       </c>
       <c r="R15">
-        <v>53.05560769482</v>
+        <v>12958.31801647857</v>
       </c>
       <c r="S15">
-        <v>0.0004940879620705381</v>
+        <v>0.1378468268687857</v>
       </c>
       <c r="T15">
-        <v>0.0006827868660814421</v>
+        <v>0.1417050521186828</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H16">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I16">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J16">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>8.113571874286666</v>
+        <v>2207.183644346369</v>
       </c>
       <c r="R16">
-        <v>73.02214686857999</v>
+        <v>13243.10186607821</v>
       </c>
       <c r="S16">
-        <v>0.000680029224051933</v>
+        <v>0.1408762748234406</v>
       </c>
       <c r="T16">
-        <v>0.0009397416216910921</v>
+        <v>0.1448192919605171</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H17">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I17">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J17">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>2.601534679213334</v>
+        <v>1177.825398742341</v>
       </c>
       <c r="R17">
-        <v>15.60920807528</v>
+        <v>4711.301594969364</v>
       </c>
       <c r="S17">
-        <v>0.0002180444860365739</v>
+        <v>0.07517618889224419</v>
       </c>
       <c r="T17">
-        <v>0.0002008790913307007</v>
+        <v>0.05152020788600711</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H18">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I18">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J18">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>1.186594240986667</v>
+        <v>1166.527342276712</v>
       </c>
       <c r="R18">
-        <v>10.67934816888</v>
+        <v>6999.16405366027</v>
       </c>
       <c r="S18">
-        <v>9.945296269820725E-05</v>
+        <v>0.07445507621469256</v>
       </c>
       <c r="T18">
-        <v>0.0001374354000422481</v>
+        <v>0.07653901576963046</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1011933333333333</v>
+        <v>37.0732365</v>
       </c>
       <c r="H19">
-        <v>0.30358</v>
+        <v>74.146473</v>
       </c>
       <c r="I19">
-        <v>0.002291706364640331</v>
+        <v>0.6541527147027733</v>
       </c>
       <c r="J19">
-        <v>0.003007939173956965</v>
+        <v>0.6300196419984189</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>8.02923404463778</v>
+        <v>2774.945555626723</v>
       </c>
       <c r="R19">
-        <v>72.26310640174002</v>
+        <v>16649.67333376034</v>
       </c>
       <c r="S19">
-        <v>0.0006729605507545267</v>
+        <v>0.1771143935919854</v>
       </c>
       <c r="T19">
-        <v>0.0009299733260461952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>28.2492</v>
-      </c>
-      <c r="H20">
-        <v>56.4984</v>
-      </c>
-      <c r="I20">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J20">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>14.989415</v>
-      </c>
-      <c r="N20">
-        <v>29.97883</v>
-      </c>
-      <c r="O20">
-        <v>0.05547446260572933</v>
-      </c>
-      <c r="P20">
-        <v>0.03893791130463959</v>
-      </c>
-      <c r="Q20">
-        <v>423.438982218</v>
-      </c>
-      <c r="R20">
-        <v>1693.755928872</v>
-      </c>
-      <c r="S20">
-        <v>0.03549002670742508</v>
-      </c>
-      <c r="T20">
-        <v>0.02179739998896074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>28.2492</v>
-      </c>
-      <c r="H21">
-        <v>56.4984</v>
-      </c>
-      <c r="I21">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J21">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>58.255493</v>
-      </c>
-      <c r="N21">
-        <v>174.766479</v>
-      </c>
-      <c r="O21">
-        <v>0.2155982850569436</v>
-      </c>
-      <c r="P21">
-        <v>0.2269949046819425</v>
-      </c>
-      <c r="Q21">
-        <v>1645.6710728556</v>
-      </c>
-      <c r="R21">
-        <v>9874.026437133602</v>
-      </c>
-      <c r="S21">
-        <v>0.1379299327174686</v>
-      </c>
-      <c r="T21">
-        <v>0.1270714983681921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>28.2492</v>
-      </c>
-      <c r="H22">
-        <v>56.4984</v>
-      </c>
-      <c r="I22">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J22">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>80.178917</v>
-      </c>
-      <c r="N22">
-        <v>240.536751</v>
-      </c>
-      <c r="O22">
-        <v>0.2967348847759819</v>
-      </c>
-      <c r="P22">
-        <v>0.3124204205415681</v>
-      </c>
-      <c r="Q22">
-        <v>2264.9902621164</v>
-      </c>
-      <c r="R22">
-        <v>13589.9415726984</v>
-      </c>
-      <c r="S22">
-        <v>0.1898374223211793</v>
-      </c>
-      <c r="T22">
-        <v>0.1748926083370183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>28.2492</v>
-      </c>
-      <c r="H23">
-        <v>56.4984</v>
-      </c>
-      <c r="I23">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J23">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>25.708558</v>
-      </c>
-      <c r="N23">
-        <v>51.417116</v>
-      </c>
-      <c r="O23">
-        <v>0.09514503664207198</v>
-      </c>
-      <c r="P23">
-        <v>0.0667829632560165</v>
-      </c>
-      <c r="Q23">
-        <v>726.2461966536</v>
-      </c>
-      <c r="R23">
-        <v>2904.9847866144</v>
-      </c>
-      <c r="S23">
-        <v>0.060869447542108</v>
-      </c>
-      <c r="T23">
-        <v>0.03738502949350569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>28.2492</v>
-      </c>
-      <c r="H24">
-        <v>56.4984</v>
-      </c>
-      <c r="I24">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J24">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>11.726012</v>
-      </c>
-      <c r="N24">
-        <v>35.178036</v>
-      </c>
-      <c r="O24">
-        <v>0.04339690469630291</v>
-      </c>
-      <c r="P24">
-        <v>0.04569088405516221</v>
-      </c>
-      <c r="Q24">
-        <v>331.2504581904</v>
-      </c>
-      <c r="R24">
-        <v>1987.5027491424</v>
-      </c>
-      <c r="S24">
-        <v>0.02776335694565712</v>
-      </c>
-      <c r="T24">
-        <v>0.02557770671897671</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>28.2492</v>
-      </c>
-      <c r="H25">
-        <v>56.4984</v>
-      </c>
-      <c r="I25">
-        <v>0.6397543128927891</v>
-      </c>
-      <c r="J25">
-        <v>0.5597989018574683</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="N25">
-        <v>238.036453</v>
-      </c>
-      <c r="O25">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="P25">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="Q25">
-        <v>2241.4464560292</v>
-      </c>
-      <c r="R25">
-        <v>13448.6787361752</v>
-      </c>
-      <c r="S25">
-        <v>0.1878641266589509</v>
-      </c>
-      <c r="T25">
-        <v>0.1730746589508148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H26">
-        <v>24.511791</v>
-      </c>
-      <c r="I26">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J26">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>14.989415</v>
-      </c>
-      <c r="N26">
-        <v>29.97883</v>
-      </c>
-      <c r="O26">
-        <v>0.05547446260572933</v>
-      </c>
-      <c r="P26">
-        <v>0.03893791130463959</v>
-      </c>
-      <c r="Q26">
-        <v>122.472469230755</v>
-      </c>
-      <c r="R26">
-        <v>734.83481538453</v>
-      </c>
-      <c r="S26">
-        <v>0.01026488204075185</v>
-      </c>
-      <c r="T26">
-        <v>0.009456786614714894</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H27">
-        <v>24.511791</v>
-      </c>
-      <c r="I27">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J27">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>58.255493</v>
-      </c>
-      <c r="N27">
-        <v>174.766479</v>
-      </c>
-      <c r="O27">
-        <v>0.2155982850569436</v>
-      </c>
-      <c r="P27">
-        <v>0.2269949046819425</v>
-      </c>
-      <c r="Q27">
-        <v>475.982156339321</v>
-      </c>
-      <c r="R27">
-        <v>4283.839407053889</v>
-      </c>
-      <c r="S27">
-        <v>0.03989386936520507</v>
-      </c>
-      <c r="T27">
-        <v>0.0551298799622284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H28">
-        <v>24.511791</v>
-      </c>
-      <c r="I28">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J28">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>80.178917</v>
-      </c>
-      <c r="N28">
-        <v>240.536751</v>
-      </c>
-      <c r="O28">
-        <v>0.2967348847759819</v>
-      </c>
-      <c r="P28">
-        <v>0.3124204205415681</v>
-      </c>
-      <c r="Q28">
-        <v>655.1096187034489</v>
-      </c>
-      <c r="R28">
-        <v>5895.98656833104</v>
-      </c>
-      <c r="S28">
-        <v>0.05490722120644691</v>
-      </c>
-      <c r="T28">
-        <v>0.07587703480101823</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H29">
-        <v>24.511791</v>
-      </c>
-      <c r="I29">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J29">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>25.708558</v>
-      </c>
-      <c r="N29">
-        <v>51.417116</v>
-      </c>
-      <c r="O29">
-        <v>0.09514503664207198</v>
-      </c>
-      <c r="P29">
-        <v>0.0667829632560165</v>
-      </c>
-      <c r="Q29">
-        <v>210.054266869126</v>
-      </c>
-      <c r="R29">
-        <v>1260.325601214756</v>
-      </c>
-      <c r="S29">
-        <v>0.01760544459592501</v>
-      </c>
-      <c r="T29">
-        <v>0.01621946868360249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H30">
-        <v>24.511791</v>
-      </c>
-      <c r="I30">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J30">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>11.726012</v>
-      </c>
-      <c r="N30">
-        <v>35.178036</v>
-      </c>
-      <c r="O30">
-        <v>0.04339690469630291</v>
-      </c>
-      <c r="P30">
-        <v>0.04569088405516221</v>
-      </c>
-      <c r="Q30">
-        <v>95.80851846916399</v>
-      </c>
-      <c r="R30">
-        <v>862.2766662224759</v>
-      </c>
-      <c r="S30">
-        <v>0.008030075222311257</v>
-      </c>
-      <c r="T30">
-        <v>0.01109687002383878</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>8.170596999999999</v>
-      </c>
-      <c r="H31">
-        <v>24.511791</v>
-      </c>
-      <c r="I31">
-        <v>0.1850379716826984</v>
-      </c>
-      <c r="J31">
-        <v>0.2428683588271486</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="N31">
-        <v>238.036453</v>
-      </c>
-      <c r="O31">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="P31">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="Q31">
-        <v>648.2999762574804</v>
-      </c>
-      <c r="R31">
-        <v>5834.699786317323</v>
-      </c>
-      <c r="S31">
-        <v>0.05433647925205826</v>
-      </c>
-      <c r="T31">
-        <v>0.0750883187417458</v>
+        <v>0.1820716874303649</v>
       </c>
     </row>
   </sheetData>
